--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
@@ -471,7 +471,7 @@
         <v>-1</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -506,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -611,7 +611,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -622,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>-1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8.40363334475569E-11</v>
+        <v>1.597491117588667E-05</v>
       </c>
       <c r="D2">
-        <v>3.430415951299892E-10</v>
+        <v>2.191557348751871E-05</v>
       </c>
       <c r="E2">
-        <v>4.258500594378489E-07</v>
+        <v>0.0002314696878462641</v>
       </c>
       <c r="F2">
-        <v>5.097982811386181E-05</v>
+        <v>0.004910650961950314</v>
       </c>
       <c r="G2">
-        <v>5.182076989740381E-11</v>
+        <v>1.691900325528906E-05</v>
       </c>
       <c r="H2">
-        <v>9.992562333138721E-11</v>
+        <v>1.332306989398901E-05</v>
       </c>
       <c r="I2">
-        <v>1.284261363920791E-09</v>
+        <v>7.223860896177214E-05</v>
       </c>
       <c r="J2">
-        <v>2.57655895379294E-05</v>
+        <v>0.001286727177699953</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.40363334475569E-11</v>
+        <v>1.597491117588667E-05</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7.695170165522569E-07</v>
       </c>
       <c r="E3">
-        <v>1.309042585440068E-08</v>
+        <v>0.0001739741554593888</v>
       </c>
       <c r="F3">
-        <v>4.495506189527987E-10</v>
+        <v>2.464474382102289E-05</v>
       </c>
       <c r="G3">
-        <v>3.836289511327529E-05</v>
+        <v>0.002062180621301035</v>
       </c>
       <c r="H3">
-        <v>7.589623877590768E-06</v>
+        <v>0.001711905625133125</v>
       </c>
       <c r="I3">
-        <v>0.01104611249515952</v>
+        <v>0.06581052384841657</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.805882292124863E-07</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.430415951299892E-10</v>
+        <v>2.191557348751871E-05</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>7.695170165522569E-07</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.114340813401782E-06</v>
+        <v>0.0006159196826533986</v>
       </c>
       <c r="F4">
-        <v>2.074859617451352E-09</v>
+        <v>3.545133697335778E-05</v>
       </c>
       <c r="G4">
-        <v>0.001141998524848864</v>
+        <v>0.009411472722824943</v>
       </c>
       <c r="H4">
-        <v>0.000442320210849001</v>
+        <v>0.008119211299410178</v>
       </c>
       <c r="I4">
-        <v>0.1540886551661846</v>
+        <v>0.290591759030252</v>
       </c>
       <c r="J4">
-        <v>2.220446049250313E-16</v>
+        <v>6.975348503246437E-07</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.258500594378489E-07</v>
+        <v>0.0002314696878462641</v>
       </c>
       <c r="C5">
-        <v>1.309042585440068E-08</v>
+        <v>0.0001739741554593888</v>
       </c>
       <c r="D5">
-        <v>1.114340813401782E-06</v>
+        <v>0.0006159196826533986</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1.931031210489209E-06</v>
+        <v>0.0003787231344722919</v>
       </c>
       <c r="G5">
-        <v>0.5030642196315076</v>
+        <v>0.527442073010155</v>
       </c>
       <c r="H5">
-        <v>0.3177719232993077</v>
+        <v>0.3544697479583658</v>
       </c>
       <c r="I5">
-        <v>0.0577293887803414</v>
+        <v>0.1402225749112975</v>
       </c>
       <c r="J5">
-        <v>1.264258381494798E-05</v>
+        <v>0.0003360638276204142</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.097982811386181E-05</v>
+        <v>0.004910650961950314</v>
       </c>
       <c r="C6">
-        <v>4.495506189527987E-10</v>
+        <v>2.464474382102289E-05</v>
       </c>
       <c r="D6">
-        <v>2.074859617451352E-09</v>
+        <v>3.545133697335778E-05</v>
       </c>
       <c r="E6">
-        <v>1.931031210489209E-06</v>
+        <v>0.0003787231344722919</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.604915033150746E-09</v>
+        <v>5.998858278100094E-05</v>
       </c>
       <c r="H6">
-        <v>3.112790913917252E-09</v>
+        <v>4.009675443206184E-05</v>
       </c>
       <c r="I6">
-        <v>7.119800304877799E-09</v>
+        <v>0.0001074156789391267</v>
       </c>
       <c r="J6">
-        <v>0.0005615767519089321</v>
+        <v>0.005415387987691478</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.182076989740381E-11</v>
+        <v>1.691900325528906E-05</v>
       </c>
       <c r="C7">
-        <v>3.836289511327529E-05</v>
+        <v>0.002062180621301035</v>
       </c>
       <c r="D7">
-        <v>0.001141998524848864</v>
+        <v>0.009411472722824943</v>
       </c>
       <c r="E7">
-        <v>0.5030642196315076</v>
+        <v>0.527442073010155</v>
       </c>
       <c r="F7">
-        <v>3.604915033150746E-09</v>
+        <v>5.998858278100094E-05</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.4676254963981195</v>
+        <v>0.406849896997644</v>
       </c>
       <c r="I7">
-        <v>0.1580514307873169</v>
+        <v>0.2814154251293135</v>
       </c>
       <c r="J7">
-        <v>2.220446049250313E-16</v>
+        <v>6.305509063775361E-07</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.992562333138721E-11</v>
+        <v>1.332306989398901E-05</v>
       </c>
       <c r="C8">
-        <v>7.589623877590768E-06</v>
+        <v>0.001711905625133125</v>
       </c>
       <c r="D8">
-        <v>0.000442320210849001</v>
+        <v>0.008119211299410178</v>
       </c>
       <c r="E8">
-        <v>0.3177719232993077</v>
+        <v>0.3544697479583658</v>
       </c>
       <c r="F8">
-        <v>3.112790913917252E-09</v>
+        <v>4.009675443206184E-05</v>
       </c>
       <c r="G8">
-        <v>0.4676254963981195</v>
+        <v>0.406849896997644</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.215817250684694</v>
+        <v>0.3541757020005531</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.029608176494889E-09</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.284261363920791E-09</v>
+        <v>7.223860896177214E-05</v>
       </c>
       <c r="C9">
-        <v>0.01104611249515952</v>
+        <v>0.06581052384841657</v>
       </c>
       <c r="D9">
-        <v>0.1540886551661846</v>
+        <v>0.290591759030252</v>
       </c>
       <c r="E9">
-        <v>0.0577293887803414</v>
+        <v>0.1402225749112975</v>
       </c>
       <c r="F9">
-        <v>7.119800304877799E-09</v>
+        <v>0.0001074156789391267</v>
       </c>
       <c r="G9">
-        <v>0.1580514307873169</v>
+        <v>0.2814154251293135</v>
       </c>
       <c r="H9">
-        <v>0.215817250684694</v>
+        <v>0.3541757020005531</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>9.006663397315151E-07</v>
+        <v>0.001272840497232419</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.57655895379294E-05</v>
+        <v>0.001286727177699953</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4.805882292124863E-07</v>
       </c>
       <c r="D10">
-        <v>2.220446049250313E-16</v>
+        <v>6.975348503246437E-07</v>
       </c>
       <c r="E10">
-        <v>1.264258381494798E-05</v>
+        <v>0.0003360638276204142</v>
       </c>
       <c r="F10">
-        <v>0.0005615767519089321</v>
+        <v>0.005415387987691478</v>
       </c>
       <c r="G10">
-        <v>2.220446049250313E-16</v>
+        <v>6.305509063775361E-07</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.029608176494889E-09</v>
       </c>
       <c r="I10">
-        <v>9.006663397315151E-07</v>
+        <v>0.001272840497232419</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.642323924022731</v>
+        <v>6.421081901608537</v>
       </c>
       <c r="D2">
-        <v>6.412804105587353</v>
+        <v>6.232214611954224</v>
       </c>
       <c r="E2">
-        <v>5.128013964344676</v>
+        <v>4.90650264817396</v>
       </c>
       <c r="F2">
-        <v>4.088200815647568</v>
+        <v>3.334758169096592</v>
       </c>
       <c r="G2">
-        <v>6.719771671249559</v>
+        <v>6.386564016778547</v>
       </c>
       <c r="H2">
-        <v>6.614408012334899</v>
+        <v>6.530861996158466</v>
       </c>
       <c r="I2">
-        <v>6.191269177702726</v>
+        <v>5.54463229587341</v>
       </c>
       <c r="J2">
-        <v>4.249428620210708</v>
+        <v>4.011492991243025</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-6.642323924022731</v>
+        <v>-6.421081901608537</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.56508029179898</v>
+        <v>-8.402791546320882</v>
       </c>
       <c r="E3">
-        <v>-5.785234939670499</v>
+        <v>-5.060307348339624</v>
       </c>
       <c r="F3">
-        <v>-6.367930160040982</v>
+        <v>-6.162846263287839</v>
       </c>
       <c r="G3">
-        <v>-4.156018941334188</v>
+        <v>-3.771893612103899</v>
       </c>
       <c r="H3">
-        <v>-4.526075556896316</v>
+        <v>-3.866228331476032</v>
       </c>
       <c r="I3">
-        <v>-2.551164649197811</v>
+        <v>-1.995625243972477</v>
       </c>
       <c r="J3">
-        <v>-8.976522671150031</v>
+        <v>-8.741976627948864</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-6.412804105587353</v>
+        <v>-6.232214611954224</v>
       </c>
       <c r="C4">
-        <v>9.56508029179898</v>
+        <v>8.402791546320882</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-4.93383863602382</v>
+        <v>-4.390548150434426</v>
       </c>
       <c r="F4">
-        <v>-6.109171602540695</v>
+        <v>-5.950397803041026</v>
       </c>
       <c r="G4">
-        <v>-3.272756529592695</v>
+        <v>-3.0074511223745</v>
       </c>
       <c r="H4">
-        <v>-3.538078869389302</v>
+        <v>-3.081890267858277</v>
       </c>
       <c r="I4">
-        <v>-1.427495671961112</v>
+        <v>-1.098328329486271</v>
       </c>
       <c r="J4">
-        <v>-8.547607988854086</v>
+        <v>-8.472778910051924</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-5.128013964344676</v>
+        <v>-4.90650264817396</v>
       </c>
       <c r="C5">
-        <v>5.785234939670499</v>
+        <v>5.060307348339624</v>
       </c>
       <c r="D5">
-        <v>4.93383863602382</v>
+        <v>4.390548150434426</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-4.819942418059462</v>
+        <v>-4.644911099880542</v>
       </c>
       <c r="G5">
-        <v>0.6701828158643919</v>
+        <v>0.6480446241201373</v>
       </c>
       <c r="H5">
-        <v>1.000089941166829</v>
+        <v>0.9576830352092067</v>
       </c>
       <c r="I5">
-        <v>1.902315660528008</v>
+        <v>1.563625082763474</v>
       </c>
       <c r="J5">
-        <v>-4.412347120455511</v>
+        <v>-4.708006675992304</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-4.088200815647568</v>
+        <v>-3.334758169096592</v>
       </c>
       <c r="C6">
-        <v>6.367930160040982</v>
+        <v>6.162846263287839</v>
       </c>
       <c r="D6">
-        <v>6.109171602540695</v>
+        <v>5.950397803041026</v>
       </c>
       <c r="E6">
-        <v>4.819942418059462</v>
+        <v>4.644911099880542</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.01351424507725</v>
+        <v>5.649320023779967</v>
       </c>
       <c r="H6">
-        <v>6.039050821292538</v>
+        <v>5.879268145723852</v>
       </c>
       <c r="I6">
-        <v>5.89393608330323</v>
+        <v>5.323877283435174</v>
       </c>
       <c r="J6">
-        <v>3.472888810047834</v>
+        <v>3.285586185652335</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-6.719771671249559</v>
+        <v>-6.386564016778547</v>
       </c>
       <c r="C7">
-        <v>4.156018941334188</v>
+        <v>3.771893612103899</v>
       </c>
       <c r="D7">
-        <v>3.272756529592695</v>
+        <v>3.0074511223745</v>
       </c>
       <c r="E7">
-        <v>-0.6701828158643919</v>
+        <v>-0.6480446241201373</v>
       </c>
       <c r="F7">
-        <v>-6.01351424507725</v>
+        <v>-5.649320023779967</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.7269274645739878</v>
+        <v>0.855178496583057</v>
       </c>
       <c r="I7">
-        <v>1.41386397330842</v>
+        <v>1.120352506054777</v>
       </c>
       <c r="J7">
-        <v>-8.523736432895049</v>
+        <v>-8.545146916659615</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-6.614408012334899</v>
+        <v>-6.530861996158466</v>
       </c>
       <c r="C8">
-        <v>4.526075556896316</v>
+        <v>3.866228331476032</v>
       </c>
       <c r="D8">
-        <v>3.538078869389302</v>
+        <v>3.081890267858277</v>
       </c>
       <c r="E8">
-        <v>-1.000089941166829</v>
+        <v>-0.9576830352092067</v>
       </c>
       <c r="F8">
-        <v>-6.039050821292538</v>
+        <v>-5.879268145723852</v>
       </c>
       <c r="G8">
-        <v>-0.7269274645739878</v>
+        <v>-0.855178496583057</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.239364991570307</v>
+        <v>0.9582870329572257</v>
       </c>
       <c r="J8">
-        <v>-10.12292156346254</v>
+        <v>-14.21979675563483</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-6.191269177702726</v>
+        <v>-5.54463229587341</v>
       </c>
       <c r="C9">
-        <v>2.551164649197811</v>
+        <v>1.995625243972477</v>
       </c>
       <c r="D9">
-        <v>1.427495671961112</v>
+        <v>1.098328329486271</v>
       </c>
       <c r="E9">
-        <v>-1.902315660528008</v>
+        <v>-1.563625082763474</v>
       </c>
       <c r="F9">
-        <v>-5.89393608330323</v>
+        <v>-5.323877283435174</v>
       </c>
       <c r="G9">
-        <v>-1.41386397330842</v>
+        <v>-1.120352506054777</v>
       </c>
       <c r="H9">
-        <v>-1.239364991570307</v>
+        <v>-0.9582870329572257</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-4.977354568354754</v>
+        <v>-4.017029546964357</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-4.249428620210708</v>
+        <v>-4.011492991243025</v>
       </c>
       <c r="C10">
-        <v>8.976522671150031</v>
+        <v>8.741976627948864</v>
       </c>
       <c r="D10">
-        <v>8.547607988854086</v>
+        <v>8.472778910051924</v>
       </c>
       <c r="E10">
-        <v>4.412347120455511</v>
+        <v>4.708006675992304</v>
       </c>
       <c r="F10">
-        <v>-3.472888810047834</v>
+        <v>-3.285586185652335</v>
       </c>
       <c r="G10">
-        <v>8.523736432895049</v>
+        <v>8.545146916659615</v>
       </c>
       <c r="H10">
-        <v>10.12292156346254</v>
+        <v>14.21979675563483</v>
       </c>
       <c r="I10">
-        <v>4.977354568354754</v>
+        <v>4.017029546964357</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>62.5</v>
       </c>
       <c r="F2">
         <v>0.5501904325073234</v>
@@ -1460,16 +1460,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>0.9306532945678907</v>
@@ -1523,10 +1523,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>37.5</v>
@@ -1543,10 +1543,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>37.5</v>
@@ -1560,16 +1560,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F8">
         <v>4.028098751281613</v>
@@ -1577,42 +1577,42 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>6.489367220625381</v>
+        <v>7.248884056718633</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7.248884056718633</v>
+        <v>6.489367220625381</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
@@ -471,7 +471,7 @@
         <v>-1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -506,13 +506,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -611,7 +611,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -622,13 +622,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -654,13 +654,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -727,16 +727,16 @@
         <v>-1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.597491117588667E-05</v>
+        <v>3.610707163947957E-05</v>
       </c>
       <c r="D2">
-        <v>2.191557348751871E-05</v>
+        <v>5.227174671285084E-05</v>
       </c>
       <c r="E2">
-        <v>0.0002314696878462641</v>
+        <v>5.306314193265216E-05</v>
       </c>
       <c r="F2">
-        <v>0.004910650961950314</v>
+        <v>8.305622837445625E-05</v>
       </c>
       <c r="G2">
-        <v>1.691900325528906E-05</v>
+        <v>9.26307891069289E-05</v>
       </c>
       <c r="H2">
-        <v>1.332306989398901E-05</v>
+        <v>8.571263622059178E-05</v>
       </c>
       <c r="I2">
-        <v>7.223860896177214E-05</v>
+        <v>4.358929028835945E-06</v>
       </c>
       <c r="J2">
-        <v>0.001286727177699953</v>
+        <v>8.01167040618278E-05</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.597491117588667E-05</v>
+        <v>3.610707163947957E-05</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7.695170165522569E-07</v>
+        <v>2.270701515705298E-08</v>
       </c>
       <c r="E3">
-        <v>0.0001739741554593888</v>
+        <v>5.207604569790192E-09</v>
       </c>
       <c r="F3">
-        <v>2.464474382102289E-05</v>
+        <v>3.852144122307166E-05</v>
       </c>
       <c r="G3">
-        <v>0.002062180621301035</v>
+        <v>3.42765461114336E-05</v>
       </c>
       <c r="H3">
-        <v>0.001711905625133125</v>
+        <v>6.387770546956162E-06</v>
       </c>
       <c r="I3">
-        <v>0.06581052384841657</v>
+        <v>0.0009624705204736017</v>
       </c>
       <c r="J3">
-        <v>4.805882292124863E-07</v>
+        <v>3.789237364282272E-05</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.191557348751871E-05</v>
+        <v>5.227174671285084E-05</v>
       </c>
       <c r="C4">
-        <v>7.695170165522569E-07</v>
+        <v>2.270701515705298E-08</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.0006159196826533986</v>
+        <v>0.8684098430245595</v>
       </c>
       <c r="F4">
-        <v>3.545133697335778E-05</v>
+        <v>5.744463431289759E-05</v>
       </c>
       <c r="G4">
-        <v>0.009411472722824943</v>
+        <v>0.0002122452769195426</v>
       </c>
       <c r="H4">
-        <v>0.008119211299410178</v>
+        <v>3.570918095308073E-05</v>
       </c>
       <c r="I4">
-        <v>0.290591759030252</v>
+        <v>0.002406717203689457</v>
       </c>
       <c r="J4">
-        <v>6.975348503246437E-07</v>
+        <v>0.0001160279139793552</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002314696878462641</v>
+        <v>5.306314193265216E-05</v>
       </c>
       <c r="C5">
-        <v>0.0001739741554593888</v>
+        <v>5.207604569790192E-09</v>
       </c>
       <c r="D5">
-        <v>0.0006159196826533986</v>
+        <v>0.8684098430245595</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0003787231344722919</v>
+        <v>5.843943391381501E-05</v>
       </c>
       <c r="G5">
-        <v>0.527442073010155</v>
+        <v>0.0002304229742100539</v>
       </c>
       <c r="H5">
-        <v>0.3544697479583658</v>
+        <v>3.896470394604279E-05</v>
       </c>
       <c r="I5">
-        <v>0.1402225749112975</v>
+        <v>0.00245326734972684</v>
       </c>
       <c r="J5">
-        <v>0.0003360638276204142</v>
+        <v>0.0001194046092107826</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.004910650961950314</v>
+        <v>8.305622837445625E-05</v>
       </c>
       <c r="C6">
-        <v>2.464474382102289E-05</v>
+        <v>3.852144122307166E-05</v>
       </c>
       <c r="D6">
-        <v>3.545133697335778E-05</v>
+        <v>5.744463431289759E-05</v>
       </c>
       <c r="E6">
-        <v>0.0003787231344722919</v>
+        <v>5.843943391381501E-05</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.998858278100094E-05</v>
+        <v>0.0001077884252840278</v>
       </c>
       <c r="H6">
-        <v>4.009675443206184E-05</v>
+        <v>0.0001015287969072798</v>
       </c>
       <c r="I6">
-        <v>0.0001074156789391267</v>
+        <v>3.481065235177994E-06</v>
       </c>
       <c r="J6">
-        <v>0.005415387987691478</v>
+        <v>0.0001208426523715556</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.691900325528906E-05</v>
+        <v>9.26307891069289E-05</v>
       </c>
       <c r="C7">
-        <v>0.002062180621301035</v>
+        <v>3.42765461114336E-05</v>
       </c>
       <c r="D7">
-        <v>0.009411472722824943</v>
+        <v>0.0002122452769195426</v>
       </c>
       <c r="E7">
-        <v>0.527442073010155</v>
+        <v>0.0002304229742100539</v>
       </c>
       <c r="F7">
-        <v>5.998858278100094E-05</v>
+        <v>0.0001077884252840278</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.406849896997644</v>
+        <v>0.6081158851175719</v>
       </c>
       <c r="I7">
-        <v>0.2814154251293135</v>
+        <v>0.04429538688259882</v>
       </c>
       <c r="J7">
-        <v>6.305509063775361E-07</v>
+        <v>0.003933629522024917</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.332306989398901E-05</v>
+        <v>8.571263622059178E-05</v>
       </c>
       <c r="C8">
-        <v>0.001711905625133125</v>
+        <v>6.387770546956162E-06</v>
       </c>
       <c r="D8">
-        <v>0.008119211299410178</v>
+        <v>3.570918095308073E-05</v>
       </c>
       <c r="E8">
-        <v>0.3544697479583658</v>
+        <v>3.896470394604279E-05</v>
       </c>
       <c r="F8">
-        <v>4.009675443206184E-05</v>
+        <v>0.0001015287969072798</v>
       </c>
       <c r="G8">
-        <v>0.406849896997644</v>
+        <v>0.6081158851175719</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.3541757020005531</v>
+        <v>0.04807793226481549</v>
       </c>
       <c r="J8">
-        <v>1.029608176494889E-09</v>
+        <v>0.003001126610558291</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.223860896177214E-05</v>
+        <v>4.358929028835945E-06</v>
       </c>
       <c r="C9">
-        <v>0.06581052384841657</v>
+        <v>0.0009624705204736017</v>
       </c>
       <c r="D9">
-        <v>0.290591759030252</v>
+        <v>0.002406717203689457</v>
       </c>
       <c r="E9">
-        <v>0.1402225749112975</v>
+        <v>0.00245326734972684</v>
       </c>
       <c r="F9">
-        <v>0.0001074156789391267</v>
+        <v>3.481065235177994E-06</v>
       </c>
       <c r="G9">
-        <v>0.2814154251293135</v>
+        <v>0.04429538688259882</v>
       </c>
       <c r="H9">
-        <v>0.3541757020005531</v>
+        <v>0.04807793226481549</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.001272840497232419</v>
+        <v>0.5027519024525611</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.001286727177699953</v>
+        <v>8.01167040618278E-05</v>
       </c>
       <c r="C10">
-        <v>4.805882292124863E-07</v>
+        <v>3.789237364282272E-05</v>
       </c>
       <c r="D10">
-        <v>6.975348503246437E-07</v>
+        <v>0.0001160279139793552</v>
       </c>
       <c r="E10">
-        <v>0.0003360638276204142</v>
+        <v>0.0001194046092107826</v>
       </c>
       <c r="F10">
-        <v>0.005415387987691478</v>
+        <v>0.0001208426523715556</v>
       </c>
       <c r="G10">
-        <v>6.305509063775361E-07</v>
+        <v>0.003933629522024917</v>
       </c>
       <c r="H10">
-        <v>1.029608176494889E-09</v>
+        <v>0.003001126610558291</v>
       </c>
       <c r="I10">
-        <v>0.001272840497232419</v>
+        <v>0.5027519024525611</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.421081901608537</v>
+        <v>5.156366745610535</v>
       </c>
       <c r="D2">
-        <v>6.232214611954224</v>
+        <v>5.003245431575244</v>
       </c>
       <c r="E2">
-        <v>4.90650264817396</v>
+        <v>4.9970396194179</v>
       </c>
       <c r="F2">
-        <v>3.334758169096592</v>
+        <v>4.812419860535253</v>
       </c>
       <c r="G2">
-        <v>6.386564016778547</v>
+        <v>4.767569826504695</v>
       </c>
       <c r="H2">
-        <v>6.530861996158466</v>
+        <v>4.799474290664664</v>
       </c>
       <c r="I2">
-        <v>5.54463229587341</v>
+        <v>6.047896557675832</v>
       </c>
       <c r="J2">
-        <v>4.011492991243025</v>
+        <v>4.827240804738952</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-6.421081901608537</v>
+        <v>-5.156366745610535</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-8.402791546320882</v>
+        <v>-8.46742528688325</v>
       </c>
       <c r="E3">
-        <v>-5.060307348339624</v>
+        <v>-9.217133274561977</v>
       </c>
       <c r="F3">
-        <v>-6.162846263287839</v>
+        <v>-5.129530104009225</v>
       </c>
       <c r="G3">
-        <v>-3.771893612103899</v>
+        <v>-5.177953840878647</v>
       </c>
       <c r="H3">
-        <v>-3.866228331476032</v>
+        <v>-5.884243277521175</v>
       </c>
       <c r="I3">
-        <v>-1.995625243972477</v>
+        <v>-3.807893852291721</v>
       </c>
       <c r="J3">
-        <v>-8.741976627948864</v>
+        <v>-5.136354819948149</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-6.232214611954224</v>
+        <v>-5.003245431575244</v>
       </c>
       <c r="C4">
-        <v>8.402791546320882</v>
+        <v>8.46742528688325</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-4.390548150434426</v>
+        <v>0.1676247308438666</v>
       </c>
       <c r="F4">
-        <v>-5.950397803041026</v>
+        <v>-4.964289406808147</v>
       </c>
       <c r="G4">
-        <v>-3.0074511223745</v>
+        <v>-4.427667873280834</v>
       </c>
       <c r="H4">
-        <v>-3.081890267858277</v>
+        <v>-5.160963233817546</v>
       </c>
       <c r="I4">
-        <v>-1.098328329486271</v>
+        <v>-3.427698354574404</v>
       </c>
       <c r="J4">
-        <v>-8.472778910051924</v>
+        <v>-4.675101278646405</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-4.90650264817396</v>
+        <v>-4.9970396194179</v>
       </c>
       <c r="C5">
-        <v>5.060307348339624</v>
+        <v>9.217133274561977</v>
       </c>
       <c r="D5">
-        <v>4.390548150434426</v>
+        <v>-0.1676247308438666</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-4.644911099880542</v>
+        <v>-4.957205596315034</v>
       </c>
       <c r="G5">
-        <v>0.6480446241201373</v>
+        <v>-4.394035467838356</v>
       </c>
       <c r="H5">
-        <v>0.9576830352092067</v>
+        <v>-5.124788581328396</v>
       </c>
       <c r="I5">
-        <v>1.563625082763474</v>
+        <v>-3.419681585715117</v>
       </c>
       <c r="J5">
-        <v>-4.708006675992304</v>
+        <v>-4.663332202326969</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-3.334758169096592</v>
+        <v>-4.812419860535253</v>
       </c>
       <c r="C6">
-        <v>6.162846263287839</v>
+        <v>5.129530104009225</v>
       </c>
       <c r="D6">
-        <v>5.950397803041026</v>
+        <v>4.964289406808147</v>
       </c>
       <c r="E6">
-        <v>4.644911099880542</v>
+        <v>4.957205596315034</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5.649320023779967</v>
+        <v>4.705330459396284</v>
       </c>
       <c r="H6">
-        <v>5.879268145723852</v>
+        <v>4.729893364796869</v>
       </c>
       <c r="I6">
-        <v>5.323877283435174</v>
+        <v>6.14480868863338</v>
       </c>
       <c r="J6">
-        <v>3.285586185652335</v>
+        <v>4.658421376065535</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-6.386564016778547</v>
+        <v>-4.767569826504695</v>
       </c>
       <c r="C7">
-        <v>3.771893612103899</v>
+        <v>5.177953840878647</v>
       </c>
       <c r="D7">
-        <v>3.0074511223745</v>
+        <v>4.427667873280834</v>
       </c>
       <c r="E7">
-        <v>-0.6480446241201373</v>
+        <v>4.394035467838356</v>
       </c>
       <c r="F7">
-        <v>-5.649320023779967</v>
+        <v>-4.705330459396284</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.855178496583057</v>
+        <v>-0.5202058472647432</v>
       </c>
       <c r="I7">
-        <v>1.120352506054777</v>
+        <v>-2.133355712258204</v>
       </c>
       <c r="J7">
-        <v>-8.545146916659615</v>
+        <v>-3.220875638027902</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-6.530861996158466</v>
+        <v>-4.799474290664664</v>
       </c>
       <c r="C8">
-        <v>3.866228331476032</v>
+        <v>5.884243277521175</v>
       </c>
       <c r="D8">
-        <v>3.081890267858277</v>
+        <v>5.160963233817546</v>
       </c>
       <c r="E8">
-        <v>-0.9576830352092067</v>
+        <v>5.124788581328396</v>
       </c>
       <c r="F8">
-        <v>-5.879268145723852</v>
+        <v>-4.729893364796869</v>
       </c>
       <c r="G8">
-        <v>-0.855178496583057</v>
+        <v>0.5202058472647432</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9582870329572257</v>
+        <v>-2.093200657067858</v>
       </c>
       <c r="J8">
-        <v>-14.21979675563483</v>
+        <v>-3.335108710387525</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-5.54463229587341</v>
+        <v>-6.047896557675832</v>
       </c>
       <c r="C9">
-        <v>1.995625243972477</v>
+        <v>3.807893852291721</v>
       </c>
       <c r="D9">
-        <v>1.098328329486271</v>
+        <v>3.427698354574404</v>
       </c>
       <c r="E9">
-        <v>-1.563625082763474</v>
+        <v>3.419681585715117</v>
       </c>
       <c r="F9">
-        <v>-5.323877283435174</v>
+        <v>-6.14480868863338</v>
       </c>
       <c r="G9">
-        <v>-1.120352506054777</v>
+        <v>2.133355712258204</v>
       </c>
       <c r="H9">
-        <v>-0.9582870329572257</v>
+        <v>2.093200657067858</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-4.017029546964357</v>
+        <v>-0.6813628321316696</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-4.011492991243025</v>
+        <v>-4.827240804738952</v>
       </c>
       <c r="C10">
-        <v>8.741976627948864</v>
+        <v>5.136354819948149</v>
       </c>
       <c r="D10">
-        <v>8.472778910051924</v>
+        <v>4.675101278646405</v>
       </c>
       <c r="E10">
-        <v>4.708006675992304</v>
+        <v>4.663332202326969</v>
       </c>
       <c r="F10">
-        <v>-3.285586185652335</v>
+        <v>-4.658421376065535</v>
       </c>
       <c r="G10">
-        <v>8.545146916659615</v>
+        <v>3.220875638027902</v>
       </c>
       <c r="H10">
-        <v>14.21979675563483</v>
+        <v>3.335108710387525</v>
       </c>
       <c r="I10">
-        <v>4.017029546964357</v>
+        <v>0.6813628321316696</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,79 +1440,79 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>0.5501904325073234</v>
+        <v>0.5513008456036581</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
       <c r="E3">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="F3">
-        <v>0.9306532945678907</v>
+        <v>1.093288041511677</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>37.5</v>
+        <v>62.5</v>
       </c>
       <c r="F4">
-        <v>1.42996494003683</v>
+        <v>1.094404773990106</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>2.373998339375346</v>
+        <v>4.694940535096802</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,99 +1520,99 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>2.08390737862229</v>
+        <v>3.033430933567757</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>1.996460299414523</v>
+        <v>5.059314278662212</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>4.028098751281613</v>
+        <v>3.136203918568333</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F9">
-        <v>7.248884056718633</v>
+        <v>10.98908155287246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6.489367220625381</v>
+        <v>12.04565863111419</v>
       </c>
     </row>
   </sheetData>
